--- a/outputs-HGR-r202-archive/g__CAG-194.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-194.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,18 +539,38 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT72020.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.8909409175172307</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT74962.fa</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>-0.7366765151274741</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>s__CAG-194 sp000432915(reject)</t>
         </is>
